--- a/back-end/Data/ALL-Orange-Data/1-standard-methyl-orange-output_rgb_values.xlsx
+++ b/back-end/Data/ALL-Orange-Data/1-standard-methyl-orange-output_rgb_values.xlsx
@@ -55,7 +55,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,148 +533,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1042,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1057,6 +1050,7 @@
     <col min="1" max="1" width="14.3703703703704" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.462962962963" customWidth="1"/>
     <col min="3" max="5" width="12.8888888888889"/>
+    <col min="7" max="7" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1084,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>174.12037037037</v>
+        <v>182.174338624339</v>
       </c>
       <c r="D2" s="5">
         <v>181.756084656085</v>
       </c>
       <c r="E2" s="5">
-        <v>182.174338624339</v>
+        <v>174.12037037037</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1101,13 +1095,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>135.850409836066</v>
+        <v>165.85143442623</v>
       </c>
       <c r="D3" s="5">
         <v>155.948258196721</v>
       </c>
       <c r="E3" s="5">
-        <v>165.85143442623</v>
+        <v>135.850409836066</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1118,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>107.864754098361</v>
+        <v>163.110655737705</v>
       </c>
       <c r="D4" s="5">
         <v>141.234118852459</v>
       </c>
       <c r="E4" s="5">
-        <v>163.110655737705</v>
+        <v>107.864754098361</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1135,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>98.6918545081967</v>
+        <v>163.578381147541</v>
       </c>
       <c r="D5" s="5">
         <v>136.605532786885</v>
       </c>
       <c r="E5" s="5">
-        <v>163.578381147541</v>
+        <v>98.6918545081967</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1152,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>110.276639344262</v>
+        <v>173.434682377049</v>
       </c>
       <c r="D6" s="5">
         <v>155.052766393443</v>
       </c>
       <c r="E6" s="5">
-        <v>173.434682377049</v>
+        <v>110.276639344262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1169,13 +1163,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="5">
-        <v>78.6396044756701</v>
+        <v>151.471506635441</v>
       </c>
       <c r="D7" s="5">
         <v>124.068956544366</v>
       </c>
       <c r="E7" s="5">
-        <v>151.471506635441</v>
+        <v>78.6396044756701</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1186,13 +1180,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="5">
-        <v>63.9769467213115</v>
+        <v>142.314549180328</v>
       </c>
       <c r="D8" s="5">
         <v>109.67443647541</v>
       </c>
       <c r="E8" s="5">
-        <v>142.314549180328</v>
+        <v>63.9769467213115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1203,13 +1197,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="5">
-        <v>64.4167520491803</v>
+        <v>157.28919057377</v>
       </c>
       <c r="D9" s="5">
         <v>120.020491803279</v>
       </c>
       <c r="E9" s="5">
-        <v>157.28919057377</v>
+        <v>64.4167520491803</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1220,13 +1214,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="5">
-        <v>71.3803790983607</v>
+        <v>156.589907786885</v>
       </c>
       <c r="D10" s="5">
         <v>124.55993852459</v>
       </c>
       <c r="E10" s="5">
-        <v>156.589907786885</v>
+        <v>71.3803790983607</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1237,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="5">
-        <v>57.6060369502992</v>
+        <v>146.989071038251</v>
       </c>
       <c r="D11" s="5">
         <v>111.767889669529</v>
       </c>
       <c r="E11" s="5">
-        <v>146.989071038251</v>
+        <v>57.6060369502992</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1254,13 +1248,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="5">
-        <v>55.6086065573771</v>
+        <v>152.533555327869</v>
       </c>
       <c r="D12" s="5">
         <v>113.000256147541</v>
       </c>
       <c r="E12" s="5">
-        <v>152.533555327869</v>
+        <v>55.6086065573771</v>
       </c>
     </row>
   </sheetData>
